--- a/data/trans_camb/P25A_8_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P25A_8_R2-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,2</t>
+          <t>-0,82</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,67</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,95</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>2,59</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,76</t>
+          <t>3,85</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>20,83</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>-1,09</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>11,59</t>
+          <t>2,86</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>3,23</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-0,61</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-0,5</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0,07</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>2,66</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>3,55</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 1,45</t>
+          <t>-4,12; 1,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 3,19</t>
+          <t>-3,44; 3,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 25,2</t>
+          <t>-2,36; 6,43</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 4,58</t>
+          <t>-2,76; 8,63</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,79; 4,31</t>
+          <t>-0,76; 10,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,65; 44,64</t>
+          <t>-6,42; 4,69</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 2,27</t>
+          <t>-6,15; 4,12</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 2,36</t>
+          <t>-6,38; 3,72</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,88; 25,95</t>
+          <t>-2,25; 9,09</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-2,5; 8,97</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-4,04; 2,16</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-3,82; 2,39</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-2,99; 3,49</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-1,26; 6,59</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-0,31; 7,25</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-48,23%</t>
+          <t>-39,66%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-26,8%</t>
+          <t>-14,2%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>238,15%</t>
+          <t>52,64%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-3,01%</t>
+          <t>82,41%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-13,95%</t>
+          <t>205,11%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>384,74%</t>
+          <t>-8,84%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-16,6%</t>
+          <t>-15,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-16,61%</t>
+          <t>-18,9%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>297,08%</t>
+          <t>61,21%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>75,15%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-15,91%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-12,9%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>1,87%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>67,98%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>117,72%</t>
         </is>
       </c>
     </row>
@@ -806,32 +944,62 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-65,26; 188,21</t>
+          <t>-66,11; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-71,36; 175,72</t>
+          <t>-53,88; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,29; 1391,4</t>
+          <t>-69,38; 172,7</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-68,99; 104,9</t>
+          <t>-71,52; 168,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-69,06; 112,56</t>
+          <t>-70,88; 159,08</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>44,54; 974,34</t>
+          <t>-43,62; 351,46</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-44,91; 543,69</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-66,36; 110,18</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-67,42; 117,86</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-56,76; 154,25</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-29,86; 267,72</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-16,92; 433,62</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,96</t>
+          <t>-0,83</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,01</t>
+          <t>2,27</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,38</t>
+          <t>5,14</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,9</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,59</t>
+          <t>7,1</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>12,41</t>
+          <t>-3,94</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-2,37</t>
+          <t>-1,73</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>2,09</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>10,54</t>
+          <t>1,32</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>5,43</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-2,3</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0,38</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>3,69</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>0,64</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>6,3</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 2,94</t>
+          <t>-5,05; 3,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 6,54</t>
+          <t>-2,16; 6,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 28,82</t>
+          <t>-0,42; 11,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,13; 0,55</t>
+          <t>-6,56; 8,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 3,4</t>
+          <t>1,8; 13,35</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,93; 26,24</t>
+          <t>-9,82; 0,3</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,95; 0,64</t>
+          <t>-7,11; 3,12</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 3,92</t>
+          <t>-4,03; 8,06</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,95; 20,15</t>
+          <t>-5,09; 7,56</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0,21; 12,04</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-5,58; 0,82</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-3,18; 3,8</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-0,2; 8,2</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-4,46; 6,22</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>2,69; 10,95</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-25,38%</t>
+          <t>-22,47%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>52,93%</t>
+          <t>61,54%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>168,16%</t>
+          <t>139,4%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-50,9%</t>
+          <t>-0,36%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-20,71%</t>
+          <t>420,17%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>162,13%</t>
+          <t>-52,21%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-41,97%</t>
+          <t>-22,92%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>27,64%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>187,0%</t>
+          <t>13,7%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>98,51%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-41,76%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>6,8%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>66,82%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>6,93%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>178,11%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-84,4; 214,18</t>
+          <t>-87,04; 231,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-56,18; 379,76</t>
+          <t>-46,53; 423,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,74; 626,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-84,2; 20,29</t>
+          <t>-56,66; 151,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-65,13; 82,74</t>
+          <t>-31,32; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>14,17; 471,94</t>
+          <t>-81,25; 20,56</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-74,23; 24,24</t>
+          <t>-67,16; 77,55</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-45,34; 108,89</t>
+          <t>-39,93; 174,79</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>37,76; 494,58</t>
+          <t>-43,28; 114,56</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-2,44; 413,73</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-73,52; 33,45</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-44,03; 107,26</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-4,96; 210,12</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-39,45; 94,04</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>53,42; 519,96</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>20,74</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,71</t>
+          <t>2,18</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2,97</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>15,44</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>2,9</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,51</t>
+          <t>6,95</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>18,06</t>
+          <t>0,16</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>5,83</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0,58</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>1,36</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>3,93</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>0,99</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>3,52</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 2,58</t>
+          <t>-3,69; 2,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 2,81</t>
+          <t>-3,32; 2,46</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,59; 34,9</t>
+          <t>-2,69; 4,56</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 4,46</t>
+          <t>-2,06; 7,26</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 6,16</t>
+          <t>-2,91; 7,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,23; 27,77</t>
+          <t>-1,28; 4,8</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 2,63</t>
+          <t>-0,56; 5,92</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 3,65</t>
+          <t>3,27; 11,2</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>10,32; 27,7</t>
+          <t>-5,14; 5,96</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1,12; 10,44</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-1,36; 2,85</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-0,82; 3,83</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>1,32; 6,72</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-2,42; 4,57</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0,29; 7,44</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-9,13%</t>
+          <t>-16,21%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,56%</t>
+          <t>-7,15%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>628,91%</t>
+          <t>20,99%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>55,53%</t>
+          <t>51,2%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>96,74%</t>
+          <t>29,45%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>502,45%</t>
+          <t>54,49%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>22,63%</t>
+          <t>93,68%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>47,47%</t>
+          <t>224,59%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>567,16%</t>
+          <t>1,6%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>133,05%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>17,58%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>41,16%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>118,87%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>13,62%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>75,02%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1601,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-70,29; 167,21</t>
+          <t>-72,36; 146,85</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-64,02; 166,17</t>
+          <t>-63,64; 145,67</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>187,3; 1741,29</t>
+          <t>-55,57; 234,5</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-28,84; 271,02</t>
+          <t>-39,79; 309,91</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-10,69; 368,53</t>
+          <t>-48,64; 268,09</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>155,82; 1539,75</t>
+          <t>-35,71; 281,15</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-33,09; 126,06</t>
+          <t>-21,12; 346,54</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-22,94; 167,62</t>
+          <t>52,98; 596,06</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>244,0; 1166,14</t>
+          <t>-41,85; 79,58</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>12,26; 393,5</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-32,42; 129,74</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-20,43; 175,88</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>23,48; 297,55</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-29,18; 78,84</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-2,63; 220,06</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>12,81</t>
+          <t>1,82</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,49</t>
+          <t>2,9</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>4,87</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>25,69</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>4,93</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>19,26</t>
+          <t>-0,59</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>2,74</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0,7</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>3,36</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>1,12</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>3,87</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 4,01</t>
+          <t>-4,25; 3,37</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 3,35</t>
+          <t>-3,68; 3,23</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,19; 27,22</t>
+          <t>-2,37; 5,32</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 2,56</t>
+          <t>-1,19; 7,92</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 4,41</t>
+          <t>0,76; 9,51</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>13,14; 39,98</t>
+          <t>-3,57; 2,38</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 2,25</t>
+          <t>-2,95; 3,97</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 3,26</t>
+          <t>0,77; 9,27</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>11,24; 29,46</t>
+          <t>-6,02; 4,94</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-1,95; 8,24</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-2,58; 2,07</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-1,96; 2,96</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>0,54; 6,17</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-2,33; 4,74</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>0,43; 7,14</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>27,94%</t>
+          <t>17,14%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>26,94%</t>
+          <t>16,78%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>443,51%</t>
+          <t>59,51%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-10,56%</t>
+          <t>59,58%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>20,9%</t>
+          <t>167,74%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>548,39%</t>
+          <t>-10,49%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>3,29%</t>
+          <t>19,02%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>22,46%</t>
+          <t>104,43%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>503,86%</t>
+          <t>-6,08%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>43,2%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-0,09%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>17,86%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>85,86%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>15,47%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>85,63%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1937,77 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-75,88; 288,55</t>
+          <t>-74,21; 228,46</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-75,96; 244,91</t>
+          <t>-68,66; 222,63</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-17,54; 1550,6</t>
+          <t>-58,16; 332,97</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-56,49; 88,24</t>
+          <t>-22,26; 243,73</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-34,96; 144,33</t>
+          <t>4,88; 708,42</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>205,74; 1195,63</t>
+          <t>-55,54; 76,77</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-46,04; 89,17</t>
+          <t>-46,01; 130,86</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-32,57; 125,15</t>
+          <t>8,11; 280,24</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>222,0; 1028,65</t>
+          <t>-49,55; 66,26</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-26,47; 189,54</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-48,93; 80,07</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-36,16; 110,47</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>2,55; 213,57</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-26,97; 82,06</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>3,53; 203,2</t>
         </is>
       </c>
     </row>
@@ -1496,7 +2024,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -1506,37 +2034,67 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>22,77</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-2,46</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>29,52</t>
+          <t>-2,66</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>3,91</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>27,81</t>
+          <t>0,77</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>-0,17</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-0,79</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>1,26</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>2,38</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>1,25</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>-0,16</t>
         </is>
       </c>
     </row>
@@ -1549,47 +2107,77 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 3,68</t>
+          <t>-0,71; 3,24</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,12; 8,85</t>
+          <t>-0,05; 8,08</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>9,61; 42,29</t>
+          <t>-1,19; 2,89</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,93; 0,19</t>
+          <t>-1,14; 5,4</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 3,98</t>
+          <t>-4,25; 3,51</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>17,98; 42,57</t>
+          <t>-5,89; 0,44</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 1,26</t>
+          <t>-3,65; 3,66</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 4,14</t>
+          <t>-0,65; 9,23</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>18,93; 38,88</t>
+          <t>-5,23; 6,6</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-6,16; 4,83</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-2,71; 0,96</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-0,99; 4,05</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>0,1; 5,57</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-2,1; 4,41</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-3,33; 3,27</t>
         </is>
       </c>
     </row>
@@ -1602,47 +2190,77 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>169,97%</t>
+          <t>120,77%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>287,37%</t>
+          <t>259,35%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>2698,36%</t>
+          <t>78,89%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-57,95%</t>
+          <t>106,35%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>5,41%</t>
+          <t>-1,23%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>696,24%</t>
+          <t>-60,27%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-20,92%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>51,3%</t>
+          <t>88,35%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>1083,74%</t>
+          <t>9,26%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-1,84%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-29,25%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>46,63%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>88,2%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>24,72%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>-2,41%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +2273,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-74,31; —</t>
+          <t>-64,69; —</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-73,43; —</t>
+          <t>-69,23; —</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>265,14; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-89,42; 25,75</t>
+          <t>-60,03; 687,99</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-51,42; 168,23</t>
+          <t>-78,91; 200,23</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>287,93; 1650,76</t>
+          <t>-89,08; 36,26</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-70,06; 81,06</t>
+          <t>-57,64; 151,23</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-30,59; 248,36</t>
+          <t>-18,01; 331,8</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>525,95; 2169,64</t>
+          <t>-49,95; 123,91</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-51,98; 76,54</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-70,48; 63,92</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-32,92; 232,77</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-7,15; 325,59</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-32,8; 126,97</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-41,9; 69,96</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2360,77 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>1,76</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>25,74</t>
+          <t>5,41</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>2,12</t>
+          <t>-3,58</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>2,59</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>24,36</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>1,71</t>
+          <t>3,53</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>2,23</t>
+          <t>8,15</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>24,89</t>
+          <t>-4,51</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>1,28</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>1,6</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>2,86</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>6,92</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>-4,03</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>0,69</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2443,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 3,56</t>
+          <t>-0,84; 4,09</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 4,81</t>
+          <t>-0,26; 5,88</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>5,65; 57,83</t>
+          <t>1,71; 11,5</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 5,14</t>
+          <t>-9,65; 0,92</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,11; 7,71</t>
+          <t>-4,2; 3,67</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>6,76; 50,02</t>
+          <t>-0,92; 4,32</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>0,18; 3,62</t>
+          <t>0,21; 11,39</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>0,57; 5,32</t>
+          <t>4,08; 13,17</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>11,53; 43,78</t>
+          <t>-10,61; 1,07</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-4,12; 6,26</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-0,03; 3,58</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>0,39; 7,67</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>3,36; 10,84</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>-8,19; -0,23</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-2,91; 3,81</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2526,77 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>227,23%</t>
+          <t>207,46%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>340,87%</t>
+          <t>309,68%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>4997,3%</t>
+          <t>838,85%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>177,31%</t>
+          <t>-59,11%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>217,05%</t>
+          <t>-5,71%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>2037,74%</t>
+          <t>124,68%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>188,82%</t>
+          <t>243,35%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>246,81%</t>
+          <t>562,37%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>2755,17%</t>
+          <t>-47,01%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>33,57%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>144,72%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>258,67%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>626,0%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>-50,21%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>20,75%</t>
         </is>
       </c>
     </row>
@@ -1886,32 +2624,62 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-33,96; —</t>
+          <t>-98,4; 79,35</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-44,88; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,4; 1135,05</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-17,15; 1086,46</t>
+          <t>-53,9; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>13,72; 1652,33</t>
+          <t>92,07; 3212,37</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>529,03; 10804,52</t>
+          <t>-81,22; 25,98</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-67,07; 501,86</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-25,81; 1014,41</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-17,43; 1565,5</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>140,59; 3086,93</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>-77,17; 3,06</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>-58,04; 228,14</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2696,77 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>15,06</t>
+          <t>2,49</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>2,91</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>21,51</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>4,62</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>18,72</t>
+          <t>-0,33</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>2,99</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>-0,15</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>1,08</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>3,57</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>0,3</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>2,95</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2779,77 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 1,33</t>
+          <t>-1,35; 1,31</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 2,43</t>
+          <t>-0,46; 2,52</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>9,83; 21,49</t>
+          <t>0,84; 4,15</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 1,26</t>
+          <t>-1,02; 3,16</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 2,71</t>
+          <t>1,01; 4,77</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>16,63; 28,33</t>
+          <t>-1,84; 1,07</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 0,85</t>
+          <t>-0,54; 3,1</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 2,12</t>
+          <t>2,54; 6,69</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>14,93; 23,93</t>
+          <t>-2,49; 1,89</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>0,85; 5,04</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-1,28; 0,68</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-0,13; 2,08</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>2,26; 4,92</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>-1,25; 1,93</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>1,53; 4,43</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2862,77 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>42,68%</t>
+          <t>43,56%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>627,45%</t>
+          <t>102,5%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-5,83%</t>
+          <t>20,53%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>24,21%</t>
+          <t>96,4%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>520,92%</t>
+          <t>-8,98%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-1,69%</t>
+          <t>25,78%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>30,85%</t>
+          <t>108,77%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>569,95%</t>
+          <t>-3,77%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>53,93%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>-4,55%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>32,11%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>106,36%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>4,34%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>68,96%</t>
         </is>
       </c>
     </row>
@@ -2087,63 +2945,100 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-38,09; 76,3</t>
+          <t>-40,78; 72,91</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-21,09; 137,2</t>
+          <t>-16,87; 144,04</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>330,53; 1162,01</t>
+          <t>19,65; 229,25</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-33,16; 38,53</t>
+          <t>-18,52; 80,92</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-11,17; 79,05</t>
+          <t>23,32; 214,27</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>335,99; 798,46</t>
+          <t>-37,32; 30,89</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-25,86; 31,55</t>
+          <t>-11,66; 86,7</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 79,93</t>
+          <t>45,55; 186,76</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>405,02; 813,67</t>
+          <t>-25,89; 25,05</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>11,8; 106,91</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-31,6; 23,62</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-4,54; 69,69</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>55,68; 171,68</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>-16,13; 31,12</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>29,1; 117,21</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
